--- a/best_result.xlsx
+++ b/best_result.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projs\dicom\abdominal-multi-organ-segmentation-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C54D1C-5A60-4269-999F-25EDCC1BDE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>file name</t>
   </si>
@@ -77,17 +94,21 @@
   </si>
   <si>
     <t>shape</t>
+  </si>
+  <si>
+    <t>mean dice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,8 +116,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -127,15 +155,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -177,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +245,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +297,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,18 +490,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,128 +522,155 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.807340466818207</v>
+        <v>0.80734046681820704</v>
       </c>
       <c r="C2">
-        <v>0.865840902226838</v>
+        <v>0.86584090222683796</v>
       </c>
       <c r="D2">
-        <v>0.636804527530688</v>
+        <v>0.63680452753068795</v>
       </c>
       <c r="E2">
-        <v>0.928790970700123</v>
+        <v>0.92879097070012295</v>
       </c>
       <c r="F2">
-        <v>0.910611368516216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.91061136851621605</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.82987764715841439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.791296795963962</v>
+        <v>0.79129679596396196</v>
       </c>
       <c r="C3">
-        <v>0.728302939138371</v>
+        <v>0.72830293913837096</v>
       </c>
       <c r="D3">
-        <v>0.703800256306554</v>
+        <v>0.70380025630655396</v>
       </c>
       <c r="E3">
-        <v>0.692073967140991</v>
+        <v>0.69207396714099101</v>
       </c>
       <c r="F3">
-        <v>0.810616132073191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.81061613207319105</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H16" si="0">AVERAGE(B3:F3)</f>
+        <v>0.74521801812461386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.730439646332456</v>
+        <v>0.73043964633245595</v>
       </c>
       <c r="C4">
-        <v>0.817542952087434</v>
+        <v>0.81754295208743399</v>
       </c>
       <c r="D4">
-        <v>0.599039212284202</v>
+        <v>0.59903921228420198</v>
       </c>
       <c r="E4">
-        <v>0.619106929252321</v>
+        <v>0.61910692925232103</v>
       </c>
       <c r="F4">
-        <v>0.795730808041605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.79573080804160501</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.7123719095996035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.370174751393083</v>
+        <v>0.37017475139308298</v>
       </c>
       <c r="C5">
-        <v>0.152864076753102</v>
+        <v>0.15286407675310201</v>
       </c>
       <c r="D5">
-        <v>0.0789451645621447</v>
+        <v>7.8945164562144704E-2</v>
       </c>
       <c r="E5">
         <v>0.113364033078574</v>
       </c>
       <c r="F5">
-        <v>0.000914146415784261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>9.1414641578426098E-4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.14325243444053759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.000861409624642312</v>
+        <v>8.6140962464231199E-4</v>
       </c>
       <c r="C6">
-        <v>0.000285378916595274</v>
+        <v>2.85378916595274E-4</v>
       </c>
       <c r="D6">
-        <v>0.000519706540281852</v>
+        <v>5.1970654028185201E-4</v>
       </c>
       <c r="E6">
-        <v>0.000201580701751399</v>
+        <v>2.0158070175139899E-4</v>
       </c>
       <c r="F6">
-        <v>0.000331169116356035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>3.3116911635603502E-4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4.3984897992537441E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.86234276180499</v>
+        <v>0.86234276180499003</v>
       </c>
       <c r="C7">
-        <v>0.824503888789914</v>
+        <v>0.82450388878991399</v>
       </c>
       <c r="D7">
-        <v>0.872204426560728</v>
+        <v>0.87220442656072805</v>
       </c>
       <c r="E7">
-        <v>0.917152100007957</v>
+        <v>0.91715210000795699</v>
       </c>
       <c r="F7">
-        <v>0.921485375387519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.92148537538751896</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.87953771051022167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -577,139 +678,167 @@
         <v>0.404145896882672</v>
       </c>
       <c r="C8">
-        <v>0.765473305839498</v>
+        <v>0.76547330583949802</v>
       </c>
       <c r="D8">
-        <v>0.575431970541025</v>
+        <v>0.57543197054102502</v>
       </c>
       <c r="E8">
         <v>0.810770688375405</v>
       </c>
       <c r="F8">
-        <v>0.715383656682315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.71538365668231496</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.65424110366418298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.761905947682309</v>
+        <v>0.76190594768230901</v>
       </c>
       <c r="C9">
-        <v>0.765648535971468</v>
+        <v>0.76564853597146798</v>
       </c>
       <c r="D9">
-        <v>0.508865932010076</v>
+        <v>0.50886593201007602</v>
       </c>
       <c r="E9">
-        <v>0.578143631957534</v>
+        <v>0.57814363195753404</v>
       </c>
       <c r="F9">
-        <v>0.81342976577533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.81342976577532999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.68559876267934339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.6663419386264</v>
+        <v>0.66634193862640001</v>
       </c>
       <c r="C10">
-        <v>0.761402622863169</v>
+        <v>0.76140262286316895</v>
       </c>
       <c r="D10">
-        <v>0.657426748064118</v>
+        <v>0.65742674806411805</v>
       </c>
       <c r="E10">
-        <v>0.554324754576811</v>
+        <v>0.55432475457681096</v>
       </c>
       <c r="F10">
-        <v>0.384884018057409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.38488401805740902</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.60487601643758138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.525715861561796</v>
+        <v>0.52571586156179595</v>
       </c>
       <c r="C11">
-        <v>0.591623748906812</v>
+        <v>0.59162374890681202</v>
       </c>
       <c r="D11">
-        <v>0.414104690974551</v>
+        <v>0.41410469097455099</v>
       </c>
       <c r="E11">
         <v>0.374990327323377</v>
       </c>
       <c r="F11">
-        <v>0.592657637880374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.59265763788037396</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.49981845332938202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.393796741452991</v>
+        <v>0.39379674145299098</v>
       </c>
       <c r="C12">
         <v>0.649196857779341</v>
       </c>
       <c r="D12">
-        <v>0.16671115856914</v>
+        <v>0.16671115856914001</v>
       </c>
       <c r="E12">
-        <v>0.507177033492823</v>
+        <v>0.50717703349282295</v>
       </c>
       <c r="F12">
         <v>0.429661482750816</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.42930865480902219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.114728682170543</v>
+        <v>0.11472868217054299</v>
       </c>
       <c r="C13">
-        <v>0.261711593823606</v>
+        <v>0.26171159382360598</v>
       </c>
       <c r="D13">
-        <v>0.000490677134445535</v>
+        <v>4.9067713444553502E-4</v>
       </c>
       <c r="E13">
-        <v>0.0640394088669951</v>
+        <v>6.4039408866995107E-2</v>
       </c>
       <c r="F13">
-        <v>0.00505232767953807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>5.0523276795380696E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>8.9204537935025544E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0204734484964811</v>
+        <v>2.0473448496481101E-2</v>
       </c>
       <c r="C14">
-        <v>0.280132694434206</v>
+        <v>0.28013269443420602</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0487309644670051</v>
+        <v>4.8730964467005103E-2</v>
       </c>
       <c r="F14">
-        <v>0.20398773006135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.20398773006134999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.11066496749180843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -717,19 +846,23 @@
         <v>13.5948550701141</v>
       </c>
       <c r="C15">
-        <v>15.3949427604675</v>
+        <v>15.394942760467501</v>
       </c>
       <c r="D15">
-        <v>16.3173823356628</v>
+        <v>16.317382335662799</v>
       </c>
       <c r="E15">
-        <v>12.0753090381622</v>
+        <v>12.075309038162199</v>
       </c>
       <c r="F15">
         <v>12.0384056568146</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>13.884178972244239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -748,8 +881,14 @@
       <c r="F16">
         <v>124</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>125.8</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>